--- a/biology/Biochimie/Entéropeptidase/Entéropeptidase.xlsx
+++ b/biology/Biochimie/Entéropeptidase/Entéropeptidase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ent%C3%A9ropeptidase</t>
+          <t>Entéropeptidase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'entéropeptidase (EC 3.4.21.9) (ou entérokinase) est une enzyme de la famille des hydrolases intervenant dans la digestion. Elle est produite par les cellules épithéliales du duodénum puis sécrétée par les glandes duodénales, les cryptes de Lieberkühn, chaque fois que de la nourriture passe de l'estomac dans le duodénum. Le rôle principal de l'entéropeptidase est d'activer le trypsinogène en trypsine par élimination d'un oligopeptide C-terminal, et a donc un rôle-clé dans la digestion.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ent%C3%A9ropeptidase</t>
+          <t>Entéropeptidase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entérokinase catalyse la réaction suivante :
 Val-(Asp)4-Lys-Ile-Val~(trypsinogène) → Val-(Asp)4-Lys (hexapeptide) + Ile-Val~(trypsine).
-L'entérokinase coupe au niveau d'une lysine à condition qu'elle soit précédée de 4 acides aspartiques, et qu'elle ne soit pas suivie d'une proline[1].
+L'entérokinase coupe au niveau d'une lysine à condition qu'elle soit précédée de 4 acides aspartiques, et qu'elle ne soit pas suivie d'une proline.
 En dépit de son nom, l'entérokinase n'est pas une kinase. Elle fut nommée ainsi parce qu'elle modifie le degré d'activité enzymatique de son substrat par une réaction de clivage protéolytique. Les kinases agissent de même par une réaction de phosphorylation.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ent%C3%A9ropeptidase</t>
+          <t>Entéropeptidase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Séquence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entéropeptidase humaine comporte 1019 acides aminés (784 acides aminés pour la chaîne lourde et 235 pour la chaîne légère).
 </t>
